--- a/data/output/FV2304_FV2210/REMADV/33004.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="226">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="226">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -816,6 +816,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U92" totalsRowShown="0">
+  <autoFilter ref="A1:U92"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,7 +1135,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5328,5 +5361,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/REMADV/33004.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="314">
   <si>
     <t>#</t>
   </si>
@@ -5310,9 +5310,7 @@
         <v>194</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>38</v>
       </c>
@@ -5424,9 +5422,7 @@
         <v>178</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>
@@ -5526,9 +5522,7 @@
         <v>178</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>39</v>
       </c>
@@ -5580,9 +5574,7 @@
         <v>178</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>39</v>
       </c>
@@ -5607,44 +5599,42 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5" t="s">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -5672,9 +5662,7 @@
         <v>178</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>40</v>
       </c>
@@ -5699,44 +5687,42 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M87" s="5" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5" t="s">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V87" s="5"/>
+      <c r="V87" s="2"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="5" t="s">
@@ -5764,9 +5750,7 @@
         <v>178</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>41</v>
       </c>
@@ -5816,9 +5800,7 @@
       <c r="K89" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L89" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>41</v>
       </c>
@@ -5843,44 +5825,42 @@
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5" t="s">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -5906,9 +5886,7 @@
         <v>178</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>42</v>
       </c>
@@ -5954,9 +5932,7 @@
         <v>178</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2304_FV2210/REMADV/33004.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33004.xlsx
@@ -1535,7 +1535,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2631,7 +2631,7 @@
         <v>199</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4577,7 +4577,7 @@
         <v>203</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4729,7 +4729,7 @@
         <v>205</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4899,22 +4899,22 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>190</v>
       </c>
       <c r="K71" s="6" t="s">
@@ -4923,19 +4923,19 @@
       <c r="L71" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>190</v>
       </c>
       <c r="V71" s="6" t="s">
@@ -5235,24 +5235,24 @@
       <c r="V77" s="9"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>193</v>
       </c>
       <c r="K78" s="6" t="s">
@@ -5261,21 +5261,21 @@
       <c r="L78" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>193</v>
       </c>
       <c r="V78" s="6" t="s">
@@ -5447,23 +5447,23 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="6" t="s">
         <v>196</v>
       </c>
@@ -5473,20 +5473,20 @@
       <c r="L82" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
       <c r="U82" s="6" t="s">
         <v>222</v>
       </c>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2"/>
